--- a/18_Natural_Processing/NIA_DICT/제발sssss.xlsx
+++ b/18_Natural_Processing/NIA_DICT/제발sssss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="411">
   <si>
     <t>Raw Sent</t>
   </si>
@@ -49,7 +49,7 @@
     <t>종괴의 효과나 협착으로 인하여 나타나고 되고, 병변 위치에 따라서, 척수내압 (Interspinal pressure)의 변화가 뇌내압에 강력하게 작용할 수 있다.</t>
   </si>
   <si>
-    <t>척수내압 (Interspinal pressure)의 변화가 뇌내압</t>
+    <t>척수내압</t>
   </si>
   <si>
     <t>Interspinal pressure</t>
@@ -76,7 +76,7 @@
     <t>경막천자(Dural puncture)로 인한 헤르니아 위험이 낮을 뿐 아니라, 요추 복강 단락술 수술이 요추의 경막천자를 통해 뇌척수액을 누출시키는 것이다.</t>
   </si>
   <si>
-    <t>경막천자(Dural puncture)로 인한 헤르니아 위험이 낮을 뿐 아니라, 요추 복강 단락술 수술이 요추의 경막천자</t>
+    <t>경막천자</t>
   </si>
   <si>
     <t>Dural puncture</t>
@@ -94,7 +94,7 @@
     <t>척수관류압(Spinal cord perfusion pressure)가 악화될 수 있어, 저혈압을 막기 위해서 수액 동시투여와 승압제를 사 용하는 것이 필요하다.</t>
   </si>
   <si>
-    <t>척수관류압(Spinal cord perfusion pressure)가 악화될 수 있어, 저혈압을 막기 위해서 수액 동시투여와 승압</t>
+    <t>척수관류압</t>
   </si>
   <si>
     <t>Spinal cord perfusion pressure</t>
@@ -103,7 +103,7 @@
     <t>비결핵항산균(nontuberculous mycobacteria)은 결핵 균과 나병균을 제외한 항산균을 말한다.</t>
   </si>
   <si>
-    <t>비결핵항산균(nontuberculous mycobacteria)은 결핵 균과 나병균을 제외한 항산균</t>
+    <t>비결핵항산균</t>
   </si>
   <si>
     <t>nontuberculous mycobacteria</t>
@@ -124,7 +124,7 @@
     <t>객담에서의 항산균 도말 검사(acid-fast bacillus smear test)와 결핵균 중합효소연쇄 반응 검사도 모두 음성이었다.</t>
   </si>
   <si>
-    <t>말 검사(acid-fast bacillus smear test)와 결핵균 중합효소연쇄 반응 검사</t>
+    <t>말 검사</t>
   </si>
   <si>
     <t>acid - fast bacillus smear test</t>
@@ -175,7 +175,7 @@
     <t>이 남성은 4년 전에 직장암(rectal cancer)을 진단받은 후 항암치료를 받아왔다.</t>
   </si>
   <si>
-    <t>직장암(rectal cancer)을 진단받은 후 항암</t>
+    <t>직장암</t>
   </si>
   <si>
     <t>rectal cancer</t>
@@ -262,7 +262,7 @@
     <t>일반적으로 기관지경의 직경은 6 mm가량이며 분절하기관지(subsegmental bronchi)까지 관찰 및 검체 획득이 가능하다.</t>
   </si>
   <si>
-    <t>분절하기관지(subsegmental bronchi)까지</t>
+    <t>분절하기관지</t>
   </si>
   <si>
     <t>subsegmental bronchi</t>
@@ -307,7 +307,7 @@
     <t>2개의 핵산길잡이(primer)를 이용하여 DNA를 증폭하여 검출하는 방법이다.</t>
   </si>
   <si>
-    <t>의 핵산길잡이(primer)를 이용하여 DNA를 증폭하여 검출하는 방법이</t>
+    <t>의 핵산길잡이</t>
   </si>
   <si>
     <t>primer</t>
@@ -415,7 +415,7 @@
     <t>RNA 실험용은 RNA  안정액 (RNAsolB)에 보관하여 일주일 안에 RNA를 추출하고, 나머지 부분은 액체질소로 급랭시켜 –70 ℃ 냉동고에 보관하 였다.</t>
   </si>
   <si>
-    <t>안정액 (RNAsolB)에 보관하여 일주일 안에 RNA를 추출하고, 나머지 부분은 액</t>
+    <t>안정액</t>
   </si>
   <si>
     <t>RNAsolB</t>
@@ -442,7 +442,7 @@
     <t>본 증례에서는 척추마취(Spinal anesthesia)를 통한 요추 복강 단락술을 받은 환자를 통해 마취적인 고찰을 하고자 한다.</t>
   </si>
   <si>
-    <t>척추마취(Spinal anesthesia)를 통한 요추 복강 단락술을 받은 환자를 통해 마취</t>
+    <t>척추마취</t>
   </si>
   <si>
     <t>Spinal anesthesia</t>
@@ -451,7 +451,7 @@
     <t>뇌경색 및 신경아교증(Gliosis)의증 진단하에 종괴제거술 및 뇌생검 수술을 받기로 하였 다.</t>
   </si>
   <si>
-    <t>신경아교증(Gliosis)의증</t>
+    <t>신경아교증</t>
   </si>
   <si>
     <t>Gliosis</t>
@@ -481,13 +481,13 @@
     <t>Knowledge Spaces</t>
   </si>
   <si>
-    <t>혁신공간(Innovation Spaces)으로 구성된3층위의 트리플힐릭스 공간체계가 형성되고 개별적인 트리플힐릭스 공간</t>
+    <t>혁신공간</t>
   </si>
   <si>
     <t>Innovation Spaces</t>
   </si>
   <si>
-    <t>합의공간(ConsensusSpaces), 혁신공간(Innovation Spaces)으로 구성된3층위의 트리플힐릭스 공간체계가 형성되고 개별적인 트리플힐릭스 공간</t>
+    <t>합의공간</t>
   </si>
   <si>
     <t>ConsensusSpaces</t>
@@ -574,7 +574,7 @@
     <t>규제약물법 (controlled substances act)  에 규정된 마약 중범죄의 법정형(상한)을하향 조정하는 내용을 담고 있다.</t>
   </si>
   <si>
-    <t>규제약물법 (controlled substances act)  에 규정된 마약 중범죄의 법</t>
+    <t>규제약물법</t>
   </si>
   <si>
     <t>controlled substances act</t>
@@ -610,7 +610,7 @@
     <t>핀테크란,  금융(finance)과 기술(technology)의 결합어로,  융과 IT의 융합을 통한 금융서비스 및 산업이다.</t>
   </si>
   <si>
-    <t>금융(finance)과 기술(technology)의 결합어로,  융과 IT의 융합을 통한 금융</t>
+    <t>금융</t>
   </si>
   <si>
     <t>finance</t>
@@ -634,7 +634,7 @@
     <t>IT 新기술 발전이 산업간 ‧ 업종간의 경계를 허물어뜨리는 이른바 빅 블러(Big Blur)*를 가속화시킴에 따라 기존 경제 ․ 금융의 패러다임도 큰 변화를 맞이하고있습니다.</t>
   </si>
   <si>
-    <t>빅 블러(Big Blur)*를 가속화시킴에 따라 기존 경제 ․ 금융의 패러</t>
+    <t>빅 블러</t>
   </si>
   <si>
     <t>Big Blur</t>
@@ -658,7 +658,7 @@
     <t>IT 기술을 규제 준수에 활용하는 레그테크(RegTech)를 적극 활용하여 리스크요인들을 효과적이고 효율적으로 통제해 나가야 합니다.</t>
   </si>
   <si>
-    <t>레그테크(RegTech)를 적극 활용하여 리스크</t>
+    <t>레그테크</t>
   </si>
   <si>
     <t>RegTech</t>
@@ -676,7 +676,7 @@
     <t xml:space="preserve">부산방문을 마치고 귀국한 중국인들이 부산 관광에서 좋았던 느낌 등을 편리하게 달 수 있도록 우리나라의관광정보 시스템 이외에도 중국의 ‘큐큐(QQ)’를 비롯한 포털 시스템에 지속적으로 안내될 수 있도록 종합적으로 대응할 필요가 있을 것이다. </t>
   </si>
   <si>
-    <t>큐큐</t>
+    <t>큐</t>
   </si>
   <si>
     <t>QQ</t>
@@ -685,13 +685,13 @@
     <t>다음으로  소비자의  행동을  고관여(high  involvement),  저관여(low  involvement)로구분하여  소비자의  행동특성에  관한  연구를  제시하고  있다.</t>
   </si>
   <si>
-    <t>고관여(high  involvement),  저관여(low  involvement)로구분하여</t>
+    <t>고관여</t>
   </si>
   <si>
     <t>high involvement</t>
   </si>
   <si>
-    <t>저관여(low  involvement)로구분하여</t>
+    <t>저관여</t>
   </si>
   <si>
     <t>low involvement</t>
@@ -724,7 +724,7 @@
     <t>Market</t>
   </si>
   <si>
-    <t>관광객(Tourist), 행동특성(Behavior Characteristic),시장 세분화 (Market Segmentation), 단체관광</t>
+    <t>관광</t>
   </si>
   <si>
     <t>Group</t>
@@ -772,9 +772,6 @@
     <t xml:space="preserve"> 작품은  '차용미술의  어머니'라고  불리는  일레인  스터트밴트(ElaineSturtevant)에 의하여 다시 작품화된다.</t>
   </si>
   <si>
-    <t>밴트</t>
-  </si>
-  <si>
     <t>ElaineSturtevant</t>
   </si>
   <si>
@@ -790,7 +787,7 @@
     <t xml:space="preserve">당시  가장  유력한  피의자는  살인  전과가  있었던  크리스터  페터손(Christer  Petterson)이라는 사람이었는데 페터손은 가장 근거리에서 그 사건을 목격하였다. </t>
   </si>
   <si>
-    <t>크리스터  페터손(Christer  Petterson)이라는 사람이었는데 페터손</t>
+    <t>크리스터  페터손</t>
   </si>
   <si>
     <t>Christer Petterson</t>
@@ -826,7 +823,7 @@
     <t>소프트스킬(soft skill)과 하드스킬(hard skill)이다.</t>
   </si>
   <si>
-    <t>소프트스킬(soft skill)과 하드스킬</t>
+    <t>소프트스킬</t>
   </si>
   <si>
     <t>soft skill</t>
@@ -850,7 +847,7 @@
     <t>유엔 아시아 태평양 경제 사회 위원회(ESCAP)와 UNCTAD에서 10월 14일에 발행한 신규 보고서에 따르면, 아시아 태평양 지역에 적용된 관세는 지난 20년간 절반으로 줄었지만 국제무역에 영향을 미치는 관세 외 정책 규정은 유의하게 증가하였다.</t>
   </si>
   <si>
-    <t>태평양 경제 사회 위원회</t>
+    <t>태평양 경제 사회</t>
   </si>
   <si>
     <t>ESCAP</t>
@@ -877,7 +874,7 @@
     <t>트위터(twitter)를 통해 IEC 고객서비스센터에 연락하세요.</t>
   </si>
   <si>
-    <t>트위터(twitter)를 통해 IEC 고객서비스센터</t>
+    <t>트위터</t>
   </si>
   <si>
     <t>twitter</t>
@@ -919,7 +916,7 @@
     <t>따라서 입력 스트림(input stream)의 탄소 질량 유량을 출력 스트림(output stream)의 탄소 질량 유량과 비교해야 한다.</t>
   </si>
   <si>
-    <t>입력 스트림(input stream)의 탄소 질량 유량을 출력 스트림</t>
+    <t>입력 스트림</t>
   </si>
   <si>
     <t>input stream</t>
@@ -958,7 +955,7 @@
     <t>Technical Barrier to Trade , TBT</t>
   </si>
   <si>
-    <t>관행 구현의 중요성과 기술 규제 근거로서의 표준 사용에 대한 규제 기관의 인식을 강화하여 TBT 관련 세계무역기구</t>
+    <t>관행 구</t>
   </si>
   <si>
     <t>WTO</t>
@@ -1009,7 +1006,7 @@
     <t>년에는 유럽 개인정보보호법 (General Data Protection Regulations, GDPR)과 같은 법률이 목표로 하는 소비자 신뢰와 관련하여 발생된 명확한 위반으로 인해, 데이터 권리 및 프라이버시에 대한 소비자의 관심이 고조되었다.</t>
   </si>
   <si>
-    <t>유럽 개인정보보호법 (General Data Protection Regulations, GDPR)과 같은 법</t>
+    <t>유럽 개인정보보호법</t>
   </si>
   <si>
     <t>General Data Protection Regulations , GDPR</t>
@@ -1018,7 +1015,7 @@
     <t>버트랜드 피카드(Bertrand Piccard),세계 최초 무동력 비행 항공기인 솔라 임펄스의 선구자</t>
   </si>
   <si>
-    <t>버트랜드 피카드</t>
+    <t>버트랜드</t>
   </si>
   <si>
     <t>Bertrand Piccard</t>
@@ -1051,24 +1048,18 @@
     <t>적층 제조(additive manufacturing) 기술(F42) 위원회의 새로운 표준은 고품질의 항공 부품, 의료 기기, 기타 부품 제조 시 3D 프린팅의 티타늄, 알루미늄 등 사용이 증가하고 있는 재료를 지원했습니다.표준은 기계 및 공정 적격화, 파우더 베드 퓨전 기술, 특성화 및 성능 이슈 등의 분야를 관장합니다.</t>
   </si>
   <si>
-    <t>적층 제조(additive manufacturing) 기술(F42) 위원회의 새로운 표준은 고품질의 항공 부품, 의료 기기, 기타 부품 제조</t>
+    <t>적층 제조</t>
   </si>
   <si>
     <t>additive manufacturing</t>
   </si>
   <si>
-    <t>기술(F42) 위원회의 새로운 표준은 고품질의 항공 부품, 의료 기기, 기타 부품 제조 시 3D 프린팅의 티타늄, 알루미늄 등 사용이 증가하고 있는 재료를 지원했습니다.표준은 기계 및 공정 적격화, 파우더 베드 퓨전 기술</t>
-  </si>
-  <si>
     <t>F 42</t>
   </si>
   <si>
     <t>이벤트 주제로는 적층 제조(additive manufacturing), 건축 및 건설, 대마초, 국가 안보, 벽돌, 농약, 토양, 암석 등을 다루었습니다.</t>
   </si>
   <si>
-    <t>적층 제조</t>
-  </si>
-  <si>
     <t>JTE(Journal of Testing and Evaluation) 및 GTJ(Geotechnical Testing Journal) 모두 콘텐츠 가치의 향상을 반영하는 "영향 지수” 상승을 확인했습니다.</t>
   </si>
   <si>
@@ -1084,7 +1075,7 @@
     <t>저희 다우(Dow)에서 생각하는 표준’이란, 자원 효율성 면에서 개선 여부에 대한 시험과 평가뿐 아니라 상위 25%의 우수성 선점을 가능하게 하는 주요한 원리이자 결정적 성공 요인입니다.</t>
   </si>
   <si>
-    <t>다우(Dow)에서 생각하는 표준’이란, 자원 효율성 면에서 개선 여부에 대한 시험과 평가뿐 아니라 상위 25%의 우</t>
+    <t>다우</t>
   </si>
   <si>
     <t>Dow</t>
@@ -1225,7 +1216,7 @@
     <t>Man</t>
   </si>
   <si>
-    <t>남용(misuse)을 들 수 있으며, 이에 따라 드론의 제어나 방전, 낙하나 드론을 사용</t>
+    <t>남용</t>
   </si>
   <si>
     <t>misuse</t>
@@ -1234,7 +1225,7 @@
     <t>본 환자의 경우, 보호자가 전신마취(general anesthesia)를 거부하여 신경외과 의사와 수술 및 마취 방법에 대하여 상의하였다.</t>
   </si>
   <si>
-    <t>전신마취(general anesthesia)를 거부하여 신경외과 의사와 수술 및 마취</t>
+    <t>전신마취</t>
   </si>
   <si>
     <t>general anesthesia</t>
@@ -1247,6 +1238,15 @@
   </si>
   <si>
     <t>rapid fluid administration</t>
+  </si>
+  <si>
+    <t>이 연구는 크레인의 조작장치 상의 휴먼에러 도 포함하고 있으나 설계, 제작, 보전, 운전, 폐기 등크레인과 관련된 전 수명주기(life cycle)적인 내용을 담고 있어 조작장치의 양립성 등 인간공학적 문제에 집중된 결과를 내지 못했다.</t>
+  </si>
+  <si>
+    <t>전, 운전, 폐기</t>
+  </si>
+  <si>
+    <t>life cycle</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2480,273 +2480,270 @@
       <c r="A87" t="s">
         <v>251</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>252</v>
-      </c>
-      <c r="C87" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s">
         <v>254</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>255</v>
-      </c>
-      <c r="C88" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" t="s">
         <v>257</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>258</v>
-      </c>
-      <c r="C89" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" t="s">
         <v>260</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>261</v>
-      </c>
-      <c r="C90" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" t="s">
         <v>263</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>264</v>
-      </c>
-      <c r="C91" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" t="s">
         <v>266</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>267</v>
-      </c>
-      <c r="C92" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s">
         <v>269</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>270</v>
-      </c>
-      <c r="C93" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" t="s">
         <v>272</v>
-      </c>
-      <c r="C94" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" t="s">
         <v>274</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>275</v>
-      </c>
-      <c r="C95" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" t="s">
         <v>277</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>278</v>
-      </c>
-      <c r="C96" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" t="s">
         <v>280</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>281</v>
-      </c>
-      <c r="C97" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" t="s">
         <v>283</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>284</v>
-      </c>
-      <c r="C98" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" t="s">
         <v>286</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>287</v>
-      </c>
-      <c r="C99" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" t="s">
         <v>289</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>290</v>
-      </c>
-      <c r="C100" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" t="s">
         <v>292</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>293</v>
-      </c>
-      <c r="C101" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" t="s">
         <v>295</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>296</v>
-      </c>
-      <c r="C102" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" t="s">
         <v>298</v>
-      </c>
-      <c r="C103" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>299</v>
+      </c>
+      <c r="B104" t="s">
         <v>300</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>301</v>
-      </c>
-      <c r="C104" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" t="s">
         <v>303</v>
-      </c>
-      <c r="C105" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" t="s">
         <v>305</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>306</v>
-      </c>
-      <c r="C106" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
         <v>308</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>309</v>
-      </c>
-      <c r="C107" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>310</v>
+      </c>
+      <c r="B108" t="s">
         <v>311</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>312</v>
-      </c>
-      <c r="C108" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" t="s">
         <v>314</v>
-      </c>
-      <c r="C109" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" t="s">
         <v>316</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>317</v>
-      </c>
-      <c r="C110" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" t="s">
         <v>319</v>
-      </c>
-      <c r="C111" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B113" t="s">
         <v>209</v>
@@ -2757,7 +2754,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B114" t="s">
         <v>209</v>
@@ -2768,155 +2765,155 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s">
         <v>324</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>325</v>
-      </c>
-      <c r="C115" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" t="s">
         <v>327</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>328</v>
-      </c>
-      <c r="C116" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>329</v>
+      </c>
+      <c r="B117" t="s">
         <v>330</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>331</v>
-      </c>
-      <c r="C117" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" t="s">
         <v>333</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>334</v>
-      </c>
-      <c r="C118" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" t="s">
         <v>336</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>337</v>
-      </c>
-      <c r="C119" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="B120" t="s">
+        <v>338</v>
+      </c>
+      <c r="C120" t="s">
         <v>339</v>
-      </c>
-      <c r="C120" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121" t="s">
         <v>341</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>342</v>
-      </c>
-      <c r="C121" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>343</v>
+      </c>
+      <c r="B122" t="s">
         <v>344</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>345</v>
-      </c>
-      <c r="C122" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="B123" t="s">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="C123" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B124" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C124" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B125" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C127" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
         <v>153</v>
@@ -2943,178 +2940,189 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B132" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C132" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="B133" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C133" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="B134" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C134" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="B137" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B139" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="B140" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="B141" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B142" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C142" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="B143" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C143" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C144" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B145" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C145" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="B147" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C147" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C148" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>405</v>
+      </c>
+      <c r="B149" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
         <v>408</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>409</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>410</v>
       </c>
     </row>
